--- a/biology/Médecine/Ministère_fédéral_de_la_Santé_(Autriche)/Ministère_fédéral_de_la_Santé_(Autriche).xlsx
+++ b/biology/Médecine/Ministère_fédéral_de_la_Santé_(Autriche)/Ministère_fédéral_de_la_Santé_(Autriche).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_f%C3%A9d%C3%A9ral_de_la_Sant%C3%A9_(Autriche)</t>
+          <t>Ministère_fédéral_de_la_Santé_(Autriche)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ministère fédéral de la Santé et des Femmes (en allemand : Bundesministerium für Gesundheit und Frauen, BMGF) est le département ministériel chargé de la santé publique et des droits des femmes de l'Autriche.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_f%C3%A9d%C3%A9ral_de_la_Sant%C3%A9_(Autriche)</t>
+          <t>Ministère_fédéral_de_la_Santé_(Autriche)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Compétences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le BMG est compétent en matière de services et personnels de santé, de services et personnels vétérinaires, de contrôle de la qualité des denrées alimentaires, de génie génétique, d'assurance maladie, d'assurance pour les accidents du travail et de droits des femmes.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_f%C3%A9d%C3%A9ral_de_la_Sant%C3%A9_(Autriche)</t>
+          <t>Ministère_fédéral_de_la_Santé_(Autriche)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le ministère s'organise entre les sections suivantes : 
 Section I : Système de santé et Coordination centrale (Gesundheitssystem, zentrale Koordination) ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_f%C3%A9d%C3%A9ral_de_la_Sant%C3%A9_(Autriche)</t>
+          <t>Ministère_fédéral_de_la_Santé_(Autriche)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère fédéral de la Santé et de la Protection de l'environnement apparaît en 1972 par la réunion de compétences détenues auparavant par le ministère fédéral des Affaires sociales et le ministère fédéral de l'Agriculture. Il est absorbé par la chancellerie fédérale en 1987, tandis qu'apparaît le ministère fédéral de l'Environnement, de la Jeunesse et de la Famille. Les compétences sont alors exercées par un ministre sans portefeuille portant le titre de ministre fédéral de la Santé et de la Fonction publique.
 Rétabli en 1991 comme ministère fédéral de la Santé, des Sports et de la Protection des consommateurs, il perd ses compétences sur les sports en 1996 et fusionne un an plus tard avec le ministère fédéral du Travail et des Affaires sociales pour former le ministère fédéral du Travail, de la Santé et des Affaires sociales. À la suite de l'arrivée au pouvoir de la coalition noire-bleue en 2000, il perd ses compétences sur le travail, fusionnées au ministère fédéral de l'Économie, et devient alors le ministère fédéral de la Sécurité sociale et des Générations.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_f%C3%A9d%C3%A9ral_de_la_Sant%C3%A9_(Autriche)</t>
+          <t>Ministère_fédéral_de_la_Santé_(Autriche)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,6 +631,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
